--- a/config/config_vps.xlsx
+++ b/config/config_vps.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Gp-on-off</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -46,86 +46,103 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>AppID_v1_adslock1-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/ad_full_1001.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/ad_full_1002.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/ad_full_1003.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/ad_full_1004.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/ad_full_1006.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/icon_1001.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/icon_1002.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/ad_full_1005.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/icon_1003.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/icon_1006.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/icon_1004.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/icon_1005.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/native_ad_1001.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/native_ad_1002.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/native_ad_1004.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/native_ad_1003.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/native_ad_1005.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/native_ad_1006.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.findthedifferences.policestory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.solitairequeen.solitaire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.puzzleblock.woodfinger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.jewelbalst.kungfurabbitcrush</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>https://play.google.com/store/apps/details?id=com.snakevsblock.snakevsvirus</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.snakevsblock.snakevsvirus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppID_v1_adslock1-5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://185.207.154.61:80/config/ad_full_1001.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://185.207.154.61:80/config/ad_full_1002.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://185.207.154.61:80/config/ad_full_1003.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://185.207.154.61:80/config/ad_full_1004.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://185.207.154.61:80/config/ad_full_1006.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://185.207.154.61:80/config/icon_1001.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://185.207.154.61:80/config/icon_1002.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://185.207.154.61:80/config/ad_full_1005.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://185.207.154.61:80/config/icon_1003.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://185.207.154.61:80/config/icon_1006.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://185.207.154.61:80/config/icon_1004.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://185.207.154.61:80/config/icon_1005.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://185.207.154.61:80/config/native_ad_1001.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://185.207.154.61:80/config/native_ad_1002.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://185.207.154.61:80/config/native_ad_1004.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://185.207.154.61:80/config/native_ad_1003.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://185.207.154.61:80/config/native_ad_1005.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://185.207.154.61:80/config/native_ad_1006.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.twofortwo.dotsconnectlegend</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -594,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -610,7 +627,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -665,7 +682,7 @@
         <v>1005</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -685,7 +702,7 @@
         <v>1005</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -696,16 +713,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -716,16 +733,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -736,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -756,16 +773,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -776,16 +793,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -796,16 +813,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -831,6 +848,11 @@
     <hyperlink ref="D9" r:id="rId18"/>
     <hyperlink ref="D10" r:id="rId19"/>
     <hyperlink ref="C5" r:id="rId20"/>
+    <hyperlink ref="C6" r:id="rId21"/>
+    <hyperlink ref="C7" r:id="rId22"/>
+    <hyperlink ref="C8" r:id="rId23"/>
+    <hyperlink ref="C10" r:id="rId24"/>
+    <hyperlink ref="C9" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config/config_vps.xlsx
+++ b/config/config_vps.xlsx
@@ -138,11 +138,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://play.google.com/store/apps/details?id=com.snakevsblock.snakevsvirus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://play.google.com/store/apps/details?id=com.twofortwo.dotsconnectlegend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://185.207.154.61/config/game_1005.apk</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +612,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -793,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>15</v>
@@ -813,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>12</v>

--- a/config/config_vps.xlsx
+++ b/config/config_vps.xlsx
@@ -142,7 +142,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://185.207.154.61/config/game_1005.apk</t>
+    <t>https://play.google.com/store/apps/details?id=com.snakevsblock.snakevsvirus</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +612,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config/config_vps.xlsx
+++ b/config/config_vps.xlsx
@@ -123,27 +123,21 @@
   </si>
   <si>
     <t>https://play.google.com/store/apps/details?id=com.findthedifferences.policestory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.solitairequeen.solitaire</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.puzzleblock.woodfinger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.solitaire.solitairespider</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.woodpuzzle.woodfinger</t>
   </si>
   <si>
     <t>https://play.google.com/store/apps/details?id=com.jewelbalst.kungfurabbitcrush</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.snakevsblock.snakevsvirus</t>
   </si>
   <si>
     <t>https://play.google.com/store/apps/details?id=com.twofortwo.dotsconnectlegend</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.snakevsblock.snakevsvirus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -612,7 +606,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C5" sqref="C5:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -793,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>15</v>
@@ -813,7 +807,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>12</v>
@@ -847,12 +841,6 @@
     <hyperlink ref="D8" r:id="rId17"/>
     <hyperlink ref="D9" r:id="rId18"/>
     <hyperlink ref="D10" r:id="rId19"/>
-    <hyperlink ref="C5" r:id="rId20"/>
-    <hyperlink ref="C6" r:id="rId21"/>
-    <hyperlink ref="C7" r:id="rId22"/>
-    <hyperlink ref="C8" r:id="rId23"/>
-    <hyperlink ref="C10" r:id="rId24"/>
-    <hyperlink ref="C9" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config/config_vps.xlsx
+++ b/config/config_vps.xlsx
@@ -1,150 +1,154 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="9540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>AppID_v1_adslock1-5</t>
+  </si>
   <si>
     <t>Gp-on-off</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaketUrl-</t>
+  </si>
+  <si>
+    <t>PicFullUrl</t>
   </si>
   <si>
     <t>IconUrl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nativeAdUrl</t>
+  </si>
+  <si>
+    <t>Full_Unit_appids</t>
   </si>
   <si>
     <t>More_Unit_appids</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Full_Unit_appids</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nativeAdUrl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PicFullUrl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaketUrl-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppID_v1_adslock1-5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.findthedifferences.policestory</t>
   </si>
   <si>
     <t>http://185.207.154.61:80/config/ad_full_1001.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/icon_1001.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/native_ad_1001.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.solitaire.solitairespider</t>
   </si>
   <si>
     <t>http://185.207.154.61:80/config/ad_full_1002.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/icon_1002.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/native_ad_1002.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.woodpuzzle.woodfinger</t>
   </si>
   <si>
     <t>http://185.207.154.61:80/config/ad_full_1003.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/icon_1003.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/native_ad_1003.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.jewelbalst.kungfurabbitcrush</t>
   </si>
   <si>
     <t>http://185.207.154.61:80/config/ad_full_1004.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/icon_1004.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/native_ad_1004.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.snakevsblock.snakevsvirus</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/ad_full_1005.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/icon_1005.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/native_ad_1005.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.twofortwo.dotsconnectlegend</t>
   </si>
   <si>
     <t>http://185.207.154.61:80/config/ad_full_1006.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://185.207.154.61:80/config/icon_1001.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://185.207.154.61:80/config/icon_1002.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://185.207.154.61:80/config/ad_full_1005.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://185.207.154.61:80/config/icon_1003.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>http://185.207.154.61:80/config/icon_1006.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://185.207.154.61:80/config/icon_1004.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://185.207.154.61:80/config/icon_1005.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://185.207.154.61:80/config/native_ad_1001.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://185.207.154.61:80/config/native_ad_1002.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://185.207.154.61:80/config/native_ad_1004.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://185.207.154.61:80/config/native_ad_1003.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://185.207.154.61:80/config/native_ad_1005.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>http://185.207.154.61:80/config/native_ad_1006.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.findthedifferences.policestory</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.solitaire.solitairespider</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.woodpuzzle.woodfinger</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.jewelbalst.kungfurabbitcrush</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.snakevsblock.snakevsvirus</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.twofortwo.dotsconnectlegend</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.hiddencitygame.finddifferences.fd</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/ad_full_2000.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/icon_2000.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/native_ad_2000.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.puzzlegame.sudoku.free</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/ad_full_2001.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/icon_2001.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/native_ad_2001.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -153,11 +157,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -168,8 +167,158 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,13 +327,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -194,8 +337,200 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -231,110 +566,341 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
-      <color rgb="FFA9D08E"/>
-      <color rgb="FF000000"/>
-      <color rgb="FFBDD7EE"/>
+      <color rgb="00A9D08E"/>
+      <color rgb="00000000"/>
+      <color rgb="00BDD7EE"/>
     </mruColors>
   </colors>
   <extLst>
@@ -353,7 +919,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -597,19 +1163,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
@@ -620,260 +1186,310 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1002</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1003</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1004</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1005</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1006</v>
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1002</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1003</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1004</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1005</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1006</v>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>1001</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>1002</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>1003</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>1004</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>1005</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>1006</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>25</v>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6">
+        <v>2000</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6">
+        <v>2001</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1"/>
-    <hyperlink ref="F7" r:id="rId2"/>
-    <hyperlink ref="F8" r:id="rId3"/>
-    <hyperlink ref="F9" r:id="rId4"/>
-    <hyperlink ref="F10" r:id="rId5"/>
-    <hyperlink ref="F5" r:id="rId6"/>
-    <hyperlink ref="D5" r:id="rId7"/>
-    <hyperlink ref="E6" r:id="rId8"/>
-    <hyperlink ref="E8" r:id="rId9"/>
-    <hyperlink ref="E9" r:id="rId10"/>
-    <hyperlink ref="E10" r:id="rId11"/>
-    <hyperlink ref="E5" r:id="rId12"/>
-    <hyperlink ref="E7" r:id="rId13"/>
-    <hyperlink ref="D6:D10" r:id="rId14" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1001.png"/>
-    <hyperlink ref="D6" r:id="rId15"/>
-    <hyperlink ref="D7" r:id="rId16"/>
-    <hyperlink ref="D8" r:id="rId17"/>
-    <hyperlink ref="D9" r:id="rId18"/>
-    <hyperlink ref="D10" r:id="rId19"/>
+    <hyperlink ref="F6" r:id="rId1" display="http://185.207.154.61:80/config/native_ad_1002.png"/>
+    <hyperlink ref="F7" r:id="rId2" display="http://185.207.154.61:80/config/native_ad_1003.png"/>
+    <hyperlink ref="F8" r:id="rId3" display="http://185.207.154.61:80/config/native_ad_1004.png"/>
+    <hyperlink ref="F9" r:id="rId4" display="http://185.207.154.61:80/config/native_ad_1005.png"/>
+    <hyperlink ref="F10" r:id="rId5" display="http://185.207.154.61:80/config/native_ad_1006.png" tooltip="http://185.207.154.61:80/config/native_ad_1006.png"/>
+    <hyperlink ref="F5" r:id="rId6" display="http://185.207.154.61:80/config/native_ad_1001.png"/>
+    <hyperlink ref="D5" r:id="rId7" display="http://185.207.154.61:80/config/ad_full_1001.png"/>
+    <hyperlink ref="E6" r:id="rId8" display="http://185.207.154.61:80/config/icon_1002.png"/>
+    <hyperlink ref="E8" r:id="rId9" display="http://185.207.154.61:80/config/icon_1004.png"/>
+    <hyperlink ref="E9" r:id="rId10" display="http://185.207.154.61:80/config/icon_1005.png"/>
+    <hyperlink ref="E10" r:id="rId11" display="http://185.207.154.61:80/config/icon_1006.png"/>
+    <hyperlink ref="E5" r:id="rId12" display="http://185.207.154.61:80/config/icon_1001.png" tooltip="http://185.207.154.61:80/config/icon_1001.png"/>
+    <hyperlink ref="E7" r:id="rId13" display="http://185.207.154.61:80/config/icon_1003.png"/>
+    <hyperlink ref="D6:D10" r:id="rId14" display="http://185.207.154.61:80/config/ad_full_1002.png"/>
+    <hyperlink ref="D6" r:id="rId15" display="http://185.207.154.61:80/config/ad_full_1002.png"/>
+    <hyperlink ref="D7" r:id="rId16" display="http://185.207.154.61:80/config/ad_full_1003.png"/>
+    <hyperlink ref="D8" r:id="rId17" display="http://185.207.154.61:80/config/ad_full_1004.png"/>
+    <hyperlink ref="D9" r:id="rId18" display="http://185.207.154.61:80/config/ad_full_1005.png"/>
+    <hyperlink ref="D10" r:id="rId19" display="http://185.207.154.61:80/config/ad_full_1006.png" tooltip="http://185.207.154.61:80/config/ad_full_1006.png"/>
+    <hyperlink ref="E11" r:id="rId20" display="http://185.207.154.61:80/config/icon_2000.png"/>
+    <hyperlink ref="D11" r:id="rId21" display="http://185.207.154.61:80/config/ad_full_2000.png"/>
+    <hyperlink ref="F11" r:id="rId22" display="http://185.207.154.61:80/config/native_ad_2000.png"/>
+    <hyperlink ref="E12" r:id="rId23" display="http://185.207.154.61:80/config/icon_2001.png" tooltip="http://185.207.154.61:80/config/icon_2001.png"/>
+    <hyperlink ref="D12" r:id="rId24" display="http://185.207.154.61:80/config/ad_full_2001.png" tooltip="http://185.207.154.61:80/config/ad_full_2001.png"/>
+    <hyperlink ref="F12" r:id="rId25" display="http://185.207.154.61:80/config/native_ad_2001.png" tooltip="http://185.207.154.61:80/config/native_ad_2001.png"/>
+    <hyperlink ref="C12" r:id="rId26" display="https://play.google.com/store/apps/details?id=com.puzzlegame.sudoku.free"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
--- a/config/config_vps.xlsx
+++ b/config/config_vps.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>AppID_v1_adslock1-5</t>
   </si>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t>http://185.207.154.61:80/config/native_ad_2001.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.assassin.killer.hunter</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/ad_full_2002.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/icon_2002.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/native_ad_2002.png</t>
   </si>
 </sst>
 </file>
@@ -143,10 +155,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -184,6 +196,80 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -205,46 +291,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,58 +329,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -351,181 +363,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,6 +579,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -587,6 +623,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,198 +676,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1169,10 +1181,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1423,6 +1435,26 @@
       </c>
       <c r="F12" s="8" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6">
+        <v>2002</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1453,6 +1485,10 @@
     <hyperlink ref="D12" r:id="rId24" display="http://185.207.154.61:80/config/ad_full_2001.png" tooltip="http://185.207.154.61:80/config/ad_full_2001.png"/>
     <hyperlink ref="F12" r:id="rId25" display="http://185.207.154.61:80/config/native_ad_2001.png" tooltip="http://185.207.154.61:80/config/native_ad_2001.png"/>
     <hyperlink ref="C12" r:id="rId26" display="https://play.google.com/store/apps/details?id=com.puzzlegame.sudoku.free"/>
+    <hyperlink ref="E13" r:id="rId27" display="http://185.207.154.61:80/config/icon_2002.png" tooltip="http://185.207.154.61:80/config/icon_2002.png"/>
+    <hyperlink ref="D13" r:id="rId28" display="http://185.207.154.61:80/config/ad_full_2002.png" tooltip="http://185.207.154.61:80/config/ad_full_2002.png"/>
+    <hyperlink ref="F13" r:id="rId29" display="http://185.207.154.61:80/config/native_ad_2002.png" tooltip="http://185.207.154.61:80/config/native_ad_2002.png"/>
+    <hyperlink ref="C13" r:id="rId30" display="https://play.google.com/store/apps/details?id=com.assassin.killer.hunter" tooltip="https://play.google.com/store/apps/details?id=com.assassin.killer.hunter"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config/config_vps.xlsx
+++ b/config/config_vps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9444"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>AppID_v1_adslock1-5</t>
   </si>
@@ -148,6 +148,42 @@
   </si>
   <si>
     <t>http://185.207.154.61:80/config/native_ad_2002.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.combineinc.legend.sudoku.game</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/ad_full_2003.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/icon_2003.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/native_ad_2003.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.puzzlegames.puzzlebrickslegend</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/ad_full_2004.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/icon_2004.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/native_ad_2004.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.resestudio.blockpuzzle.jewellegend</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/ad_full_2005.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/icon_2005.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/native_ad_2005.png</t>
   </si>
 </sst>
 </file>
@@ -155,10 +191,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -196,7 +232,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,28 +292,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,24 +300,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -308,7 +331,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,17 +360,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -363,6 +399,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -375,169 +573,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,30 +615,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -623,26 +635,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,154 +668,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -931,7 +967,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1181,13 +1217,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
@@ -1219,7 +1255,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1242,10 +1278,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>2005</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -1455,6 +1491,66 @@
       </c>
       <c r="F13" s="8" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6">
+        <v>2003</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6">
+        <v>2004</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6">
+        <v>2005</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1489,6 +1585,18 @@
     <hyperlink ref="D13" r:id="rId28" display="http://185.207.154.61:80/config/ad_full_2002.png" tooltip="http://185.207.154.61:80/config/ad_full_2002.png"/>
     <hyperlink ref="F13" r:id="rId29" display="http://185.207.154.61:80/config/native_ad_2002.png" tooltip="http://185.207.154.61:80/config/native_ad_2002.png"/>
     <hyperlink ref="C13" r:id="rId30" display="https://play.google.com/store/apps/details?id=com.assassin.killer.hunter" tooltip="https://play.google.com/store/apps/details?id=com.assassin.killer.hunter"/>
+    <hyperlink ref="E14" r:id="rId31" display="http://185.207.154.61:80/config/icon_2003.png" tooltip="http://185.207.154.61:80/config/icon_2003.png"/>
+    <hyperlink ref="D14" r:id="rId32" display="http://185.207.154.61:80/config/ad_full_2003.png" tooltip="http://185.207.154.61:80/config/ad_full_2003.png"/>
+    <hyperlink ref="F14" r:id="rId33" display="http://185.207.154.61:80/config/native_ad_2003.png" tooltip="http://185.207.154.61:80/config/native_ad_2003.png"/>
+    <hyperlink ref="C14" r:id="rId34" display="https://play.google.com/store/apps/details?id=com.combineinc.legend.sudoku.game" tooltip="https://play.google.com/store/apps/details?id=com.combineinc.legend.sudoku.game"/>
+    <hyperlink ref="E15" r:id="rId35" display="http://185.207.154.61:80/config/icon_2004.png" tooltip="http://185.207.154.61:80/config/icon_2004.png"/>
+    <hyperlink ref="D15" r:id="rId36" display="http://185.207.154.61:80/config/ad_full_2004.png" tooltip="http://185.207.154.61:80/config/ad_full_2004.png"/>
+    <hyperlink ref="F15" r:id="rId37" display="http://185.207.154.61:80/config/native_ad_2004.png" tooltip="http://185.207.154.61:80/config/native_ad_2004.png"/>
+    <hyperlink ref="C15" r:id="rId38" display="https://play.google.com/store/apps/details?id=com.puzzlegames.puzzlebrickslegend" tooltip="https://play.google.com/store/apps/details?id=com.puzzlegames.puzzlebrickslegend"/>
+    <hyperlink ref="E16" r:id="rId39" display="http://185.207.154.61:80/config/icon_2005.png" tooltip="http://185.207.154.61:80/config/icon_2005.png"/>
+    <hyperlink ref="D16" r:id="rId40" display="http://185.207.154.61:80/config/ad_full_2005.png" tooltip="http://185.207.154.61:80/config/ad_full_2005.png"/>
+    <hyperlink ref="F16" r:id="rId41" display="http://185.207.154.61:80/config/native_ad_2005.png" tooltip="http://185.207.154.61:80/config/native_ad_2005.png"/>
+    <hyperlink ref="C16" r:id="rId42" display="https://play.google.com/store/apps/details?id=com.resestudio.blockpuzzle.jewellegend" tooltip="https://play.google.com/store/apps/details?id=com.resestudio.blockpuzzle.jewellegend"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1505,7 +1613,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1522,7 +1630,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config/config_vps.xlsx
+++ b/config/config_vps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9444"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>AppID_v1_adslock1-5</t>
   </si>
@@ -184,6 +184,66 @@
   </si>
   <si>
     <t>http://185.207.154.61:80/config/native_ad_2005.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.resestudio.princessblast</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/ad_full_2006.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/icon_2006.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/native_ad_2006.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.puzzleblockgame.woodpuzzle.woodenpuzzles</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/ad_full_2007.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/icon_2007.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/native_ad_2007.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.jungleblastcube.jewelscrush.puzzlegame</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/ad_full_2008.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/icon_2008.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/native_ad_2008.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.fishinggames.catfishing.sillycat</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/ad_full_2009.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/icon_2009.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/native_ad_2009.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.fishinghuntgame.oceanfish</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/ad_full_2010.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/icon_2010.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/native_ad_2010.png</t>
   </si>
 </sst>
 </file>
@@ -191,10 +251,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -230,6 +290,134 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -237,134 +425,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -405,175 +465,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,41 +675,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,6 +701,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,25 +744,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,125 +777,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -844,22 +904,22 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -967,7 +1027,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1217,20 +1277,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="83.5" customWidth="1"/>
     <col min="4" max="4" width="51.5" customWidth="1"/>
-    <col min="5" max="5" width="45.875" customWidth="1"/>
-    <col min="6" max="6" width="52.875" customWidth="1"/>
+    <col min="5" max="5" width="47.625" customWidth="1"/>
+    <col min="6" max="6" width="54.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1551,6 +1611,106 @@
       </c>
       <c r="F16" s="8" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6">
+        <v>2006</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6">
+        <v>2007</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6">
+        <v>2008</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6">
+        <v>2009</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1597,6 +1757,26 @@
     <hyperlink ref="D16" r:id="rId40" display="http://185.207.154.61:80/config/ad_full_2005.png" tooltip="http://185.207.154.61:80/config/ad_full_2005.png"/>
     <hyperlink ref="F16" r:id="rId41" display="http://185.207.154.61:80/config/native_ad_2005.png" tooltip="http://185.207.154.61:80/config/native_ad_2005.png"/>
     <hyperlink ref="C16" r:id="rId42" display="https://play.google.com/store/apps/details?id=com.resestudio.blockpuzzle.jewellegend" tooltip="https://play.google.com/store/apps/details?id=com.resestudio.blockpuzzle.jewellegend"/>
+    <hyperlink ref="E17" r:id="rId43" display="http://185.207.154.61:80/config/icon_2006.png" tooltip="http://185.207.154.61:80/config/icon_2006.png"/>
+    <hyperlink ref="E18" r:id="rId44" display="http://185.207.154.61:80/config/icon_2007.png" tooltip="http://185.207.154.61:80/config/icon_2007.png"/>
+    <hyperlink ref="E19" r:id="rId45" display="http://185.207.154.61:80/config/icon_2008.png" tooltip="http://185.207.154.61:80/config/icon_2008.png"/>
+    <hyperlink ref="E20" r:id="rId46" display="http://185.207.154.61:80/config/icon_2009.png" tooltip="http://185.207.154.61:80/config/icon_2009.png"/>
+    <hyperlink ref="E21" r:id="rId47" display="http://185.207.154.61:80/config/icon_2010.png" tooltip="http://185.207.154.61:80/config/icon_2010.png"/>
+    <hyperlink ref="D17" r:id="rId48" display="http://185.207.154.61:80/config/ad_full_2006.png" tooltip="http://185.207.154.61:80/config/ad_full_2006.png"/>
+    <hyperlink ref="D18" r:id="rId49" display="http://185.207.154.61:80/config/ad_full_2007.png" tooltip="http://185.207.154.61:80/config/ad_full_2007.png"/>
+    <hyperlink ref="D19" r:id="rId50" display="http://185.207.154.61:80/config/ad_full_2008.png" tooltip="http://185.207.154.61:80/config/ad_full_2008.png"/>
+    <hyperlink ref="D20" r:id="rId51" display="http://185.207.154.61:80/config/ad_full_2009.png" tooltip="http://185.207.154.61:80/config/ad_full_2009.png"/>
+    <hyperlink ref="D21" r:id="rId52" display="http://185.207.154.61:80/config/ad_full_2010.png" tooltip="http://185.207.154.61:80/config/ad_full_2010.png"/>
+    <hyperlink ref="F17" r:id="rId53" display="http://185.207.154.61:80/config/native_ad_2006.png" tooltip="http://185.207.154.61:80/config/native_ad_2006.png"/>
+    <hyperlink ref="F18" r:id="rId54" display="http://185.207.154.61:80/config/native_ad_2007.png" tooltip="http://185.207.154.61:80/config/native_ad_2007.png"/>
+    <hyperlink ref="F19" r:id="rId55" display="http://185.207.154.61:80/config/native_ad_2008.png" tooltip="http://185.207.154.61:80/config/native_ad_2008.png"/>
+    <hyperlink ref="F20" r:id="rId56" display="http://185.207.154.61:80/config/native_ad_2009.png" tooltip="http://185.207.154.61:80/config/native_ad_2009.png"/>
+    <hyperlink ref="F21" r:id="rId57" display="http://185.207.154.61:80/config/native_ad_2010.png" tooltip="http://185.207.154.61:80/config/native_ad_2010.png"/>
+    <hyperlink ref="C17" r:id="rId58" display="https://play.google.com/store/apps/details?id=com.resestudio.princessblast" tooltip="https://play.google.com/store/apps/details?id=com.resestudio.princessblast"/>
+    <hyperlink ref="C18" r:id="rId59" display="https://play.google.com/store/apps/details?id=com.puzzleblockgame.woodpuzzle.woodenpuzzles" tooltip="https://play.google.com/store/apps/details?id=com.puzzleblockgame.woodpuzzle.woodenpuzzles"/>
+    <hyperlink ref="C19" r:id="rId60" display="https://play.google.com/store/apps/details?id=com.jungleblastcube.jewelscrush.puzzlegame" tooltip="https://play.google.com/store/apps/details?id=com.jungleblastcube.jewelscrush.puzzlegame"/>
+    <hyperlink ref="C20" r:id="rId61" display="https://play.google.com/store/apps/details?id=com.fishinggames.catfishing.sillycat" tooltip="https://play.google.com/store/apps/details?id=com.fishinggames.catfishing.sillycat"/>
+    <hyperlink ref="C21" r:id="rId62" display="https://play.google.com/store/apps/details?id=com.fishinghuntgame.oceanfish" tooltip="https://play.google.com/store/apps/details?id=com.fishinghuntgame.oceanfish"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1613,7 +1793,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1630,7 +1810,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config/config_vps.xlsx
+++ b/config/config_vps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>AppID_v1_adslock1-5</t>
   </si>
@@ -244,6 +244,18 @@
   </si>
   <si>
     <t>http://185.207.154.61:80/config/native_ad_2010.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.bubbleshooter.superharvest</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/ad_full_2011.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/icon_2011.png</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61:80/config/native_ad_2011.png</t>
   </si>
 </sst>
 </file>
@@ -251,10 +263,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -290,6 +302,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -304,8 +332,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,16 +402,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,75 +411,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,13 +424,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -471,169 +483,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,17 +687,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,24 +737,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,31 +762,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,110 +789,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -889,13 +901,13 @@
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -904,22 +916,22 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1277,10 +1289,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F29" sqref="F28:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1711,6 +1723,26 @@
       </c>
       <c r="F21" s="8" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="6">
+        <v>2011</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1777,6 +1809,10 @@
     <hyperlink ref="C19" r:id="rId60" display="https://play.google.com/store/apps/details?id=com.jungleblastcube.jewelscrush.puzzlegame" tooltip="https://play.google.com/store/apps/details?id=com.jungleblastcube.jewelscrush.puzzlegame"/>
     <hyperlink ref="C20" r:id="rId61" display="https://play.google.com/store/apps/details?id=com.fishinggames.catfishing.sillycat" tooltip="https://play.google.com/store/apps/details?id=com.fishinggames.catfishing.sillycat"/>
     <hyperlink ref="C21" r:id="rId62" display="https://play.google.com/store/apps/details?id=com.fishinghuntgame.oceanfish" tooltip="https://play.google.com/store/apps/details?id=com.fishinghuntgame.oceanfish"/>
+    <hyperlink ref="E22" r:id="rId63" display="http://185.207.154.61:80/config/icon_2011.png" tooltip="http://185.207.154.61:80/config/icon_2011.png"/>
+    <hyperlink ref="D22" r:id="rId64" display="http://185.207.154.61:80/config/ad_full_2011.png" tooltip="http://185.207.154.61:80/config/ad_full_2011.png"/>
+    <hyperlink ref="F22" r:id="rId65" display="http://185.207.154.61:80/config/native_ad_2011.png" tooltip="http://185.207.154.61:80/config/native_ad_2011.png"/>
+    <hyperlink ref="C22" r:id="rId66" display="https://play.google.com/store/apps/details?id=com.bubbleshooter.superharvest" tooltip="https://play.google.com/store/apps/details?id=com.bubbleshooter.superharvest"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
